--- a/Assets/Excel/SpecialValue.xlsx
+++ b/Assets/Excel/SpecialValue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16880" windowHeight="10270"/>
+    <workbookView windowWidth="16880" windowHeight="10870"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialValue" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
     <t>ageMax_study</t>
   </si>
   <si>
-    <t>eduLevel</t>
+    <t>expEduLevel</t>
   </si>
   <si>
-    <t>careerLevel</t>
+    <t>expCareerLevel</t>
   </si>
   <si>
     <t>int</t>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>

--- a/Assets/Excel/SpecialValue.xlsx
+++ b/Assets/Excel/SpecialValue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16880" windowHeight="10870"/>
+    <workbookView windowWidth="16490" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialValue" sheetId="1" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1072,7 +1072,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>

--- a/Assets/Excel/SpecialValue.xlsx
+++ b/Assets/Excel/SpecialValue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16490" windowHeight="10300"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialValue" sheetId="1" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1069,7 +1069,7 @@
         <v>1001</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>28</v>

--- a/Assets/Excel/SpecialValue.xlsx
+++ b/Assets/Excel/SpecialValue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="17400" windowHeight="8330"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialValue" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>//Remark</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>20;40;60;80;100</t>
+  </si>
+  <si>
+    <t>10;25;45;70;100</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1017,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1078,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SpecialValue.xlsx
+++ b/Assets/Excel/SpecialValue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17400" windowHeight="8330"/>
+    <workbookView windowWidth="13820" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialValue" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>//Remark</t>
   </si>
@@ -28,6 +28,18 @@
     <t>ageMax_study</t>
   </si>
   <si>
+    <t>ageStartGap</t>
+  </si>
+  <si>
+    <t>ageEndGap</t>
+  </si>
+  <si>
+    <t>yearMarryM</t>
+  </si>
+  <si>
+    <t>yearMarryF</t>
+  </si>
+  <si>
     <t>expEduLevel</t>
   </si>
   <si>
@@ -35,6 +47,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>int[]</t>
@@ -1014,18 +1029,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="13.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="12.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="16.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="17.2727272727273" customWidth="1"/>
+    <col min="3" max="7" width="12.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="16.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="17.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1033,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1043,31 +1058,55 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -1077,11 +1116,23 @@
       <c r="C4">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>2.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SpecialValue.xlsx
+++ b/Assets/Excel/SpecialValue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13820" windowHeight="9450"/>
+    <workbookView windowWidth="19350" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialValue" sheetId="1" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -1126,7 +1126,7 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
